--- a/OnBoard/output/trust/catch/Catch_Trust_22.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_22.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,13 +1093,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Scyliorhinus canicula</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
-        </is>
+          <t>SERAHEP</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>0.059</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1128,19 +1134,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G19">
-        <v>0.059</v>
+        <v>1.796</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1169,19 +1175,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Torpedo marmorata</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TORPMAR</t>
         </is>
       </c>
       <c r="G20">
-        <v>1.796</v>
+        <v>0.326</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1210,16 +1216,16 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Torpedo marmorata</t>
+          <t>Trisopterus minutus capelanus</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TORPMAR</t>
+          <t>TRISCAP</t>
         </is>
       </c>
       <c r="G21">
-        <v>0.326</v>
+        <v>0.018</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1246,17 +1252,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Trisopterus minutus capelanus</t>
+          <t>Blennius ocellaris</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TRISCAP</t>
+          <t>BLENOCE</t>
         </is>
       </c>
       <c r="G22">
@@ -1292,19 +1298,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Blennius ocellaris</t>
+          <t>Citharus linguatula</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="G23">
-        <v>0.018</v>
+        <v>0.056</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1333,19 +1339,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Citharus linguatula</t>
+          <t>Eledone moschata</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="G24">
-        <v>0.056</v>
+        <v>0.303</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1374,19 +1380,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eledone moschata</t>
+          <t>Lepidotrigla cavillone</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="G25">
-        <v>0.303</v>
+        <v>0.04</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1415,16 +1421,16 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lepidotrigla cavillone</t>
+          <t>Merluccius merluccius</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="G26">
-        <v>0.04</v>
+        <v>0.059</v>
       </c>
       <c r="H26">
         <v>3</v>
@@ -1456,19 +1462,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lophius budegassa</t>
+          <t>Pagellus erythrinus</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="G27">
-        <v>2.4</v>
+        <v>0.176</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1497,19 +1503,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Merluccius merluccius</t>
+          <t>Pecten jacobaeus</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="G28">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1538,16 +1544,16 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pagellus erythrinus</t>
+          <t>Scorpaena notata</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SCORNOT</t>
         </is>
       </c>
       <c r="G29">
-        <v>0.176</v>
+        <v>0.382</v>
       </c>
       <c r="H29">
         <v>9</v>
@@ -1579,19 +1585,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pecten jacobaeus</t>
+          <t>Serranus hepatus</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PECTJAC</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="G30">
-        <v>0.067</v>
+        <v>0.049</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1620,19 +1626,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Scorpaena notata</t>
+          <t>Solea solea</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="G31">
-        <v>0.382</v>
+        <v>1.588</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1661,16 +1667,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Scyliorhinus canicula</t>
+          <t>Anadara transversa</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SCYOCAN</t>
-        </is>
+          <t>ANADTRA</t>
+        </is>
+      </c>
+      <c r="G32">
+        <v>0.003</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="33">
@@ -1696,22 +1708,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Serranus hepatus</t>
+          <t>Anomia ephippium</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ANOMEPH</t>
         </is>
       </c>
       <c r="G33">
-        <v>0.049</v>
+        <v>0.001</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="34">
@@ -1737,22 +1749,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Solea solea</t>
+          <t>Antedon mediterranea</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ANTEMED</t>
         </is>
       </c>
       <c r="G34">
-        <v>1.588</v>
+        <v>0.007</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="35">
@@ -1778,19 +1790,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Anadara transversa</t>
+          <t>Ascidiella aspersa</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ANADTRA</t>
+          <t>ASCIASP</t>
         </is>
       </c>
       <c r="G35">
-        <v>0.003</v>
+        <v>0.067</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="36">
@@ -1816,19 +1831,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Anomia ephippium</t>
+          <t>Astropecten irregularis</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ANOMEPH</t>
+          <t>ASTRIRR</t>
         </is>
       </c>
       <c r="G36">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="37">
@@ -1854,19 +1872,22 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Antedon mediterranea</t>
+          <t>Biological discard</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ANTEMED</t>
+          <t>BIOLDIS</t>
         </is>
       </c>
       <c r="G37">
-        <v>0.007</v>
+        <v>0.124</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="38">
@@ -1892,19 +1913,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ascidiella aspersa</t>
+          <t>Bryozoa nd</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ASCIASP</t>
+          <t>BRYOZND</t>
         </is>
       </c>
       <c r="G38">
-        <v>0.067</v>
+        <v>0.014</v>
       </c>
       <c r="H38">
-        <v>20</v>
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="39">
@@ -1930,19 +1954,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Astropecten irregularis</t>
+          <t>Calyptraea chinensis</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ASTRIRR</t>
+          <t>CALICHI</t>
         </is>
       </c>
       <c r="G39">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H39">
         <v>1</v>
+      </c>
+      <c r="I39">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="40">
@@ -1968,19 +1995,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Biological discard</t>
+          <t>Coralligenous concretions</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>BIOLDIS</t>
+          <t>CORACON</t>
         </is>
       </c>
       <c r="G40">
-        <v>0.124</v>
+        <v>0.052</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I40">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="41">
@@ -2006,19 +2036,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bryozoa nd</t>
+          <t>Dardanus arrosor</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>BRYOZND</t>
+          <t>DARDARR</t>
         </is>
       </c>
       <c r="G41">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="42">
@@ -2044,19 +2077,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Calyptraea chinensis</t>
+          <t>Dromia personata</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CALICHI</t>
+          <t>DROMPER</t>
         </is>
       </c>
       <c r="G42">
-        <v>0.001</v>
+        <v>0.017</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="43">
@@ -2082,19 +2118,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Coralligenous concretions</t>
+          <t>Fusinus rostratus</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CORACON</t>
+          <t>FUSIROS</t>
         </is>
       </c>
       <c r="G43">
-        <v>0.052</v>
+        <v>0.005</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="44">
@@ -2120,19 +2159,22 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dardanus arrosor</t>
+          <t>Galathea dispersa</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DARDARR</t>
+          <t>GALADIS</t>
         </is>
       </c>
       <c r="G44">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H44">
         <v>1</v>
+      </c>
+      <c r="I44">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="45">
@@ -2158,19 +2200,22 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Dromia personata</t>
+          <t>Gibbula magus</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DROMPER</t>
+          <t>GIBBMAG</t>
         </is>
       </c>
       <c r="G45">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="46">
@@ -2196,19 +2241,22 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fusinus rostratus</t>
+          <t>Hiatella arctica</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>FUSIROS</t>
+          <t>HIATARC</t>
         </is>
       </c>
       <c r="G46">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="47">
@@ -2234,19 +2282,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Galathea dispersa</t>
+          <t>Holothuria forskali</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>GALADIS</t>
+          <t>HOLOFOR</t>
         </is>
       </c>
       <c r="G47">
-        <v>0.001</v>
+        <v>2.4</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I47">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="48">
@@ -2272,19 +2323,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Gibbula magus</t>
+          <t>Holothuria tubulosa</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>GIBBMAG</t>
+          <t>HOLOTUB</t>
         </is>
       </c>
       <c r="G48">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="H48">
         <v>1</v>
+      </c>
+      <c r="I48">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="49">
@@ -2310,19 +2364,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hiatella arctica</t>
+          <t>Inachus comunissimus</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>HIATARC</t>
+          <t>INACCOM</t>
         </is>
       </c>
       <c r="G49">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="H49">
         <v>1</v>
+      </c>
+      <c r="I49">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="50">
@@ -2348,19 +2405,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Holothuria forskali</t>
+          <t>Inachus dorsettensis</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>HOLOFOR</t>
+          <t>INACDOR</t>
         </is>
       </c>
       <c r="G50">
-        <v>2.4</v>
+        <v>0.002</v>
       </c>
       <c r="H50">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="51">
@@ -2386,19 +2446,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Holothuria tubulosa</t>
+          <t>Medorippe lanata</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HOLOTUB</t>
+          <t>MEDOLAN</t>
         </is>
       </c>
       <c r="G51">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="H51">
         <v>1</v>
+      </c>
+      <c r="I51">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="52">
@@ -2424,19 +2487,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Inachus comunissimus</t>
+          <t>Nassarius nitidus</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>INACCOM</t>
+          <t>NASSNIT</t>
         </is>
       </c>
       <c r="G52">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="53">
@@ -2462,19 +2528,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Inachus dorsettensis</t>
+          <t>Ophiothrix fragilis</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>INACDOR</t>
+          <t>OPHIFRA</t>
         </is>
       </c>
       <c r="G53">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="I53">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="54">
@@ -2500,12 +2569,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Medorippe lanata</t>
+          <t>Ophiura albida</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MEDOLAN</t>
+          <t>OPHIALB</t>
         </is>
       </c>
       <c r="G54">
@@ -2514,6 +2583,9 @@
       <c r="H54">
         <v>1</v>
       </c>
+      <c r="I54">
+        <v>82.75702127659575</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2538,19 +2610,22 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nassarius nitidus</t>
+          <t>Ophiura ophiura</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>NASSNIT</t>
+          <t>OPHIOPH</t>
         </is>
       </c>
       <c r="G55">
-        <v>0.005</v>
+        <v>0.033</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="I55">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="56">
@@ -2576,19 +2651,22 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ophiothrix fragilis</t>
+          <t>Pagurus prideauxi</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>OPHIFRA</t>
+          <t>PAGUPRI</t>
         </is>
       </c>
       <c r="G56">
-        <v>0.008</v>
+        <v>0.078</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="I56">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="57">
@@ -2614,19 +2692,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ophiura albida</t>
+          <t>Phallusia mammillata</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>OPHIALB</t>
+          <t>PHALMAM</t>
         </is>
       </c>
       <c r="G57">
-        <v>0.001</v>
+        <v>0.036</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="58">
@@ -2652,19 +2733,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ophiura ophiura</t>
+          <t>Pilumnus spinifer</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OPHIOPH</t>
+          <t>PILUSPI</t>
         </is>
       </c>
       <c r="G58">
-        <v>0.033</v>
+        <v>0.004</v>
       </c>
       <c r="H58">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="I58">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="59">
@@ -2690,19 +2774,22 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pagurus prideauxi</t>
+          <t>Polychaeta n.d. Tubes</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PAGUPRI</t>
+          <t>TUBEPOL</t>
         </is>
       </c>
       <c r="G59">
-        <v>0.078</v>
+        <v>0.001</v>
       </c>
       <c r="H59">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="60">
@@ -2728,19 +2815,22 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Phallusia mammillata</t>
+          <t>Porifera nd</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>PHALMAM</t>
+          <t>PORIFND</t>
         </is>
       </c>
       <c r="G60">
-        <v>0.036</v>
+        <v>1.49</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>-1</v>
+      </c>
+      <c r="I60">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="61">
@@ -2766,19 +2856,22 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pilumnus spinifer</t>
+          <t>Psammechinus microtuberculatus</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PILUSPI</t>
+          <t>PSAMMIC</t>
         </is>
       </c>
       <c r="G61">
-        <v>0.004</v>
+        <v>0.029</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="I61">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="62">
@@ -2804,19 +2897,22 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Polychaeta n.d. Tubes</t>
+          <t>Pyura dura</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TUBEPOL</t>
+          <t>PYURADU</t>
         </is>
       </c>
       <c r="G62">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="63">
@@ -2842,19 +2938,22 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Porifera nd</t>
+          <t>Shells NA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>PORIFND</t>
+          <t>SHELLS</t>
         </is>
       </c>
       <c r="G63">
-        <v>1.49</v>
+        <v>0.141</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I63">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="64">
@@ -2880,19 +2979,22 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Psammechinus microtuberculatus</t>
+          <t>Tethya aurantium</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>PSAMMIC</t>
+          <t>TETHAUR</t>
         </is>
       </c>
       <c r="G64">
-        <v>0.029</v>
+        <v>0.003</v>
       </c>
       <c r="H64">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="65">
@@ -2918,19 +3020,22 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Pyura dura</t>
+          <t>Turritella communis</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>PYURADU</t>
+          <t>TURRCOM</t>
         </is>
       </c>
       <c r="G65">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>82.75702127659575</v>
       </c>
     </row>
     <row r="66">
@@ -2956,133 +3061,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Shells NA</t>
+          <t>Wood NA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>SHELLS</t>
+          <t>WOOD</t>
         </is>
       </c>
       <c r="G66">
-        <v>0.141</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Tethya aurantium</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>TETHAUR</t>
-        </is>
-      </c>
-      <c r="G67">
-        <v>0.003</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Turritella communis</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>TURRCOM</t>
-        </is>
-      </c>
-      <c r="G68">
-        <v>0.001</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Wood NA</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>WOOD</t>
-        </is>
-      </c>
-      <c r="G69">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="I66">
+        <v>82.75702127659575</v>
       </c>
     </row>
   </sheetData>
